--- a/stock.xlsx
+++ b/stock.xlsx
@@ -1,21 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="false"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
+  </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="1" r:id="rId1"/>
     <sheet name="dailyCheck" sheetId="2" r:id="rId2"/>
     <sheet name="transaction" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>TotalInvestment</t>
+  </si>
+  <si>
+    <t>PotentialProfit</t>
+  </si>
+  <si>
+    <t>StocktotalInvestment</t>
+  </si>
+  <si>
+    <t>StockpotentialProfit</t>
+  </si>
+  <si>
+    <t>ETFtotalInvestment</t>
+  </si>
+  <si>
+    <t>ETFpotentialProfit</t>
+  </si>
+  <si>
+    <t>ETFBondtotalInvestment</t>
+  </si>
+  <si>
+    <t>ETFBondpotentialProfit</t>
+  </si>
+  <si>
+    <t>MFtotalInvestment</t>
+  </si>
+  <si>
+    <t>MFpotentialProfit</t>
+  </si>
+  <si>
+    <t>20180918</t>
+  </si>
+  <si>
+    <t>20180920</t>
+  </si>
+  <si>
+    <t>20180926</t>
+  </si>
+  <si>
+    <t>26236.01</t>
+  </si>
+  <si>
+    <t>26958.34</t>
+  </si>
+  <si>
+    <t>9827.77</t>
+  </si>
+  <si>
+    <t>10039.10</t>
+  </si>
+  <si>
+    <t>3296.50</t>
+  </si>
+  <si>
+    <t>3542.66</t>
+  </si>
+  <si>
+    <t>6497.94</t>
+  </si>
+  <si>
+    <t>6470.56</t>
+  </si>
+  <si>
+    <t>6613.80</t>
+  </si>
+  <si>
+    <t>6906.02</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>TMUS</t>
+  </si>
+  <si>
+    <t>ETF</t>
+  </si>
+  <si>
+    <t>SPHD</t>
+  </si>
+  <si>
+    <t>PZD</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>HEMP</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>FCEL</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>CME</t>
+  </si>
+  <si>
+    <t>ETFBond</t>
+  </si>
+  <si>
+    <t>BLV</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>FOCPX</t>
+  </si>
+  <si>
+    <t>FSCHX</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -376,64 +532,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError sqref="A1" numberStoredAsText="1"/>
   </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Date</v>
-      </c>
-      <c r="B1" t="str">
-        <v>TotalInvestment</v>
-      </c>
-      <c r="C1" t="str">
-        <v>PotentialProfit</v>
-      </c>
-      <c r="D1" t="str">
-        <v>StocktotalInvestment</v>
-      </c>
-      <c r="E1" t="str">
-        <v>StockpotentialProfit</v>
-      </c>
-      <c r="F1" t="str">
-        <v>ETFtotalInvestment</v>
-      </c>
-      <c r="G1" t="str">
-        <v>ETFpotentialProfit</v>
-      </c>
-      <c r="H1" t="str">
-        <v>ETFBondtotalInvestment</v>
-      </c>
-      <c r="I1" t="str">
-        <v>ETFBondpotentialProfit</v>
-      </c>
-      <c r="J1" t="str">
-        <v>MFtotalInvestment</v>
-      </c>
-      <c r="K1" t="str">
-        <v>MFpotentialProfit</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>20180918</v>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2">
         <v>26236.013280000003</v>
@@ -442,9 +607,9 @@
         <v>26948.98848</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>20180920</v>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3">
         <v>26236.013280000003</v>
@@ -453,85 +618,91 @@
         <v>27015.592719999997</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>20180926</v>
-      </c>
-      <c r="B4" t="str">
-        <v>26236.01</v>
-      </c>
-      <c r="C4" t="str">
-        <v>26958.34</v>
-      </c>
-      <c r="D4" t="str">
-        <v>9827.77</v>
-      </c>
-      <c r="E4" t="str">
-        <v>10039.10</v>
-      </c>
-      <c r="F4" t="str">
-        <v>3296.50</v>
-      </c>
-      <c r="G4" t="str">
-        <v>3542.66</v>
-      </c>
-      <c r="H4" t="str">
-        <v>6497.94</v>
-      </c>
-      <c r="I4" t="str">
-        <v>6470.56</v>
-      </c>
-      <c r="J4" t="str">
-        <v>6613.80</v>
-      </c>
-      <c r="K4" t="str">
-        <v>6906.02</v>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
+    <ignoredError sqref="A1:K4" numberStoredAsText="1"/>
   </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Date</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Type</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Ticker</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Quantity</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Price</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Action</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>42995</v>
       </c>
-      <c r="B2" t="str">
-        <v>Stock</v>
-      </c>
-      <c r="C2" t="str">
-        <v>V</v>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -539,19 +710,19 @@
       <c r="E2">
         <v>121.71</v>
       </c>
-      <c r="F2" t="str">
-        <v>Buy</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>42995</v>
       </c>
-      <c r="B3" t="str">
-        <v>Stock</v>
-      </c>
-      <c r="C3" t="str">
-        <v>TMUS</v>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
       </c>
       <c r="D3">
         <v>16</v>
@@ -559,39 +730,39 @@
       <c r="E3">
         <v>61.34</v>
       </c>
-      <c r="F3" t="str">
-        <v>Buy</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>42995</v>
       </c>
-      <c r="B4" t="str">
-        <v>ETF</v>
-      </c>
-      <c r="C4" t="str">
-        <v>SPHD</v>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
       <c r="E4">
-        <v>40.95</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Buy</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>42995</v>
       </c>
-      <c r="B5" t="str">
-        <v>ETF</v>
-      </c>
-      <c r="C5" t="str">
-        <v>PZD</v>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
       </c>
       <c r="D5">
         <v>46</v>
@@ -599,19 +770,19 @@
       <c r="E5">
         <v>40.53</v>
       </c>
-      <c r="F5" t="str">
-        <v>Buy</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>42995</v>
       </c>
-      <c r="B6" t="str">
-        <v>Stock</v>
-      </c>
-      <c r="C6" t="str">
-        <v>JPM</v>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -619,39 +790,39 @@
       <c r="E6">
         <v>112.89</v>
       </c>
-      <c r="F6" t="str">
-        <v>Buy</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>42995</v>
       </c>
-      <c r="B7" t="str">
-        <v>Stock</v>
-      </c>
-      <c r="C7" t="str">
-        <v>HEMP</v>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
       </c>
       <c r="D7">
         <v>26000</v>
       </c>
       <c r="E7">
-        <v>0.0383</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Buy</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>42995</v>
       </c>
-      <c r="B8" t="str">
-        <v>Stock</v>
-      </c>
-      <c r="C8" t="str">
-        <v>GE</v>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
       </c>
       <c r="D8">
         <v>65</v>
@@ -659,19 +830,19 @@
       <c r="E8">
         <v>15.01</v>
       </c>
-      <c r="F8" t="str">
-        <v>Buy</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>42995</v>
       </c>
-      <c r="B9" t="str">
-        <v>Stock</v>
-      </c>
-      <c r="C9" t="str">
-        <v>FCEL</v>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -679,19 +850,19 @@
       <c r="E9">
         <v>2.09</v>
       </c>
-      <c r="F9" t="str">
-        <v>Buy</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>42995</v>
       </c>
-      <c r="B10" t="str">
-        <v>ETF</v>
-      </c>
-      <c r="C10" t="str">
-        <v>DIA</v>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -699,39 +870,39 @@
       <c r="E10">
         <v>235.18</v>
       </c>
-      <c r="F10" t="str">
-        <v>Buy</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>42995</v>
       </c>
-      <c r="B11" t="str">
-        <v>Stock</v>
-      </c>
-      <c r="C11" t="str">
-        <v>CME</v>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
       <c r="E11">
-        <v>162.92</v>
-      </c>
-      <c r="F11" t="str">
-        <v>Buy</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>162.91999999999999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>42995</v>
       </c>
-      <c r="B12" t="str">
-        <v>ETFBond</v>
-      </c>
-      <c r="C12" t="str">
-        <v>BLV</v>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
       </c>
       <c r="D12">
         <v>74</v>
@@ -739,19 +910,19 @@
       <c r="E12">
         <v>87.81</v>
       </c>
-      <c r="F12" t="str">
-        <v>Buy</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>42995</v>
       </c>
-      <c r="B13" t="str">
-        <v>Stock</v>
-      </c>
-      <c r="C13" t="str">
-        <v>AMZN</v>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -759,39 +930,39 @@
       <c r="E13">
         <v>1326.83</v>
       </c>
-      <c r="F13" t="str">
-        <v>Buy</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>42995</v>
       </c>
-      <c r="B14" t="str">
-        <v>MF</v>
-      </c>
-      <c r="C14" t="str">
-        <v>FOCPX</v>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
       </c>
       <c r="D14">
-        <v>314.328</v>
+        <v>314.32799999999997</v>
       </c>
       <c r="E14">
         <v>10.51</v>
       </c>
-      <c r="F14" t="str">
-        <v>Buy</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>42995</v>
       </c>
-      <c r="B15" t="str">
-        <v>MF</v>
-      </c>
-      <c r="C15" t="str">
-        <v>FSCHX</v>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
       </c>
       <c r="D15">
         <v>181.88</v>
@@ -799,19 +970,19 @@
       <c r="E15">
         <v>18.2</v>
       </c>
-      <c r="F15" t="str">
-        <v>Buy</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>43361</v>
       </c>
-      <c r="B16" t="str">
-        <v>Stock</v>
-      </c>
-      <c r="C16" t="str">
-        <v>V</v>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -819,19 +990,19 @@
       <c r="E16">
         <v>134.91</v>
       </c>
-      <c r="F16" t="str">
-        <v>Buy</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>43361</v>
       </c>
-      <c r="B17" t="str">
-        <v>Stock</v>
-      </c>
-      <c r="C17" t="str">
-        <v>V</v>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -839,14 +1010,19 @@
       <c r="E17">
         <v>145.46</v>
       </c>
-      <c r="F17" t="str">
-        <v>Buy</v>
+      <c r="F17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F17"/>
+    <ignoredError sqref="A1:F17" numberStoredAsText="1"/>
   </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/stock.xlsx
+++ b/stock.xlsx
@@ -11,7 +11,7 @@
     <sheet name="dailyCheck" sheetId="2" r:id="rId2"/>
     <sheet name="transaction" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -54,15 +54,6 @@
   </si>
   <si>
     <t>MFpotentialProfit</t>
-  </si>
-  <si>
-    <t>20180918</t>
-  </si>
-  <si>
-    <t>20180920</t>
-  </si>
-  <si>
-    <t>20180926</t>
   </si>
   <si>
     <t>26236.01</t>
@@ -171,10 +162,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,13 +204,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -553,10 +564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -597,66 +608,111 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
+      <c r="A2">
+        <v>20180918</v>
       </c>
       <c r="B2">
-        <v>26236.013280000003</v>
+        <v>26236.013279999999</v>
       </c>
       <c r="C2">
         <v>26948.98848</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>20180919</v>
+      </c>
+      <c r="B3">
+        <v>26236.013279999999</v>
+      </c>
+      <c r="C3">
+        <v>27015.592720000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>20180920</v>
+      </c>
+      <c r="B4">
+        <v>26236.013279999999</v>
+      </c>
+      <c r="C4">
+        <v>27220.358479999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>20180921</v>
+      </c>
+      <c r="B5">
+        <v>26236.013279999999</v>
+      </c>
+      <c r="C5">
+        <v>27146.233080000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>20180924</v>
+      </c>
+      <c r="B6">
+        <v>26236.013279999999</v>
+      </c>
+      <c r="C6">
+        <v>26990.91776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>20180925</v>
+      </c>
+      <c r="B7">
+        <v>26236.013279999999</v>
+      </c>
+      <c r="C7">
+        <v>26989.347600000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>20180926</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>26236.013280000003</v>
-      </c>
-      <c r="C3">
-        <v>27015.592719999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J8" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K8" t="s">
         <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:K7 B8:K8" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -679,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -699,10 +755,10 @@
         <v>42995</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -711,7 +767,7 @@
         <v>121.71</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -719,10 +775,10 @@
         <v>42995</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
       </c>
       <c r="D3">
         <v>16</v>
@@ -731,7 +787,7 @@
         <v>61.34</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -739,10 +795,10 @@
         <v>42995</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -751,7 +807,7 @@
         <v>40.950000000000003</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -759,10 +815,10 @@
         <v>42995</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>46</v>
@@ -771,7 +827,7 @@
         <v>40.53</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -779,10 +835,10 @@
         <v>42995</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -791,7 +847,7 @@
         <v>112.89</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -799,10 +855,10 @@
         <v>42995</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>26000</v>
@@ -811,7 +867,7 @@
         <v>3.8300000000000001E-2</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -819,10 +875,10 @@
         <v>42995</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>65</v>
@@ -831,7 +887,7 @@
         <v>15.01</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -839,10 +895,10 @@
         <v>42995</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -851,7 +907,7 @@
         <v>2.09</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -859,10 +915,10 @@
         <v>42995</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -871,7 +927,7 @@
         <v>235.18</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -879,10 +935,10 @@
         <v>42995</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -891,7 +947,7 @@
         <v>162.91999999999999</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -899,10 +955,10 @@
         <v>42995</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <v>74</v>
@@ -911,7 +967,7 @@
         <v>87.81</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -919,10 +975,10 @@
         <v>42995</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -931,7 +987,7 @@
         <v>1326.83</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -939,10 +995,10 @@
         <v>42995</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>314.32799999999997</v>
@@ -951,7 +1007,7 @@
         <v>10.51</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -959,10 +1015,10 @@
         <v>42995</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>181.88</v>
@@ -971,7 +1027,7 @@
         <v>18.2</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -979,10 +1035,10 @@
         <v>43361</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -991,7 +1047,7 @@
         <v>134.91</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -999,10 +1055,10 @@
         <v>43361</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -1011,7 +1067,7 @@
         <v>145.46</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -1,187 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
-  </bookViews>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="false"/>
   <sheets>
     <sheet name="Chart" sheetId="1" r:id="rId1"/>
     <sheet name="dailyCheck" sheetId="2" r:id="rId2"/>
     <sheet name="transaction" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>TotalInvestment</t>
-  </si>
-  <si>
-    <t>PotentialProfit</t>
-  </si>
-  <si>
-    <t>StocktotalInvestment</t>
-  </si>
-  <si>
-    <t>StockpotentialProfit</t>
-  </si>
-  <si>
-    <t>ETFtotalInvestment</t>
-  </si>
-  <si>
-    <t>ETFpotentialProfit</t>
-  </si>
-  <si>
-    <t>ETFBondtotalInvestment</t>
-  </si>
-  <si>
-    <t>ETFBondpotentialProfit</t>
-  </si>
-  <si>
-    <t>MFtotalInvestment</t>
-  </si>
-  <si>
-    <t>MFpotentialProfit</t>
-  </si>
-  <si>
-    <t>26236.01</t>
-  </si>
-  <si>
-    <t>26958.34</t>
-  </si>
-  <si>
-    <t>9827.77</t>
-  </si>
-  <si>
-    <t>10039.10</t>
-  </si>
-  <si>
-    <t>3296.50</t>
-  </si>
-  <si>
-    <t>3542.66</t>
-  </si>
-  <si>
-    <t>6497.94</t>
-  </si>
-  <si>
-    <t>6470.56</t>
-  </si>
-  <si>
-    <t>6613.80</t>
-  </si>
-  <si>
-    <t>6906.02</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Ticker</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Buy</t>
-  </si>
-  <si>
-    <t>TMUS</t>
-  </si>
-  <si>
-    <t>ETF</t>
-  </si>
-  <si>
-    <t>SPHD</t>
-  </si>
-  <si>
-    <t>PZD</t>
-  </si>
-  <si>
-    <t>JPM</t>
-  </si>
-  <si>
-    <t>HEMP</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>FCEL</t>
-  </si>
-  <si>
-    <t>DIA</t>
-  </si>
-  <si>
-    <t>CME</t>
-  </si>
-  <si>
-    <t>ETFBond</t>
-  </si>
-  <si>
-    <t>BLV</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>FOCPX</t>
-  </si>
-  <si>
-    <t>FSCHX</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -204,17 +41,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -543,222 +376,626 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError sqref="A1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Date</v>
+      </c>
+      <c r="B1" t="str">
+        <v>TotalInvestment</v>
+      </c>
+      <c r="C1" t="str">
+        <v>PotentialProfit</v>
+      </c>
+      <c r="D1" t="str">
+        <v>StocktotalInvestment</v>
+      </c>
+      <c r="E1" t="str">
+        <v>StockpotentialProfit</v>
+      </c>
+      <c r="F1" t="str">
+        <v>ETFtotalInvestment</v>
+      </c>
+      <c r="G1" t="str">
+        <v>ETFpotentialProfit</v>
+      </c>
+      <c r="H1" t="str">
+        <v>ETFBondtotalInvestment</v>
+      </c>
+      <c r="I1" t="str">
+        <v>ETFBondpotentialProfit</v>
+      </c>
+      <c r="J1" t="str">
+        <v>MFtotalInvestment</v>
+      </c>
+      <c r="K1" t="str">
+        <v>MFpotentialProfit</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>20180918</v>
       </c>
       <c r="B2">
-        <v>26236.013279999999</v>
+        <v>26236.01328</v>
       </c>
       <c r="C2">
         <v>26948.98848</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3">
       <c r="A3">
         <v>20180919</v>
       </c>
       <c r="B3">
-        <v>26236.013279999999</v>
+        <v>26236.01328</v>
       </c>
       <c r="C3">
-        <v>27015.592720000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>27015.59272</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>20180920</v>
       </c>
       <c r="B4">
-        <v>26236.013279999999</v>
+        <v>26236.01328</v>
       </c>
       <c r="C4">
-        <v>27220.358479999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>27220.35848</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>20180921</v>
       </c>
       <c r="B5">
-        <v>26236.013279999999</v>
+        <v>26236.01328</v>
       </c>
       <c r="C5">
-        <v>27146.233080000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>27146.23308</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>20180924</v>
       </c>
       <c r="B6">
-        <v>26236.013279999999</v>
+        <v>26236.01328</v>
       </c>
       <c r="C6">
         <v>26990.91776</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7">
       <c r="A7">
         <v>20180925</v>
       </c>
       <c r="B7">
-        <v>26236.013279999999</v>
+        <v>26236.01328</v>
       </c>
       <c r="C7">
-        <v>26989.347600000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>26989.3476</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>20180926</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
+      <c r="B8" t="str">
+        <v>26236.01</v>
+      </c>
+      <c r="C8" t="str">
+        <v>26958.34</v>
+      </c>
+      <c r="D8" t="str">
+        <v>9827.77</v>
+      </c>
+      <c r="E8" t="str">
+        <v>10039.10</v>
+      </c>
+      <c r="F8" t="str">
+        <v>3296.50</v>
+      </c>
+      <c r="G8" t="str">
+        <v>3542.66</v>
+      </c>
+      <c r="H8" t="str">
+        <v>6497.94</v>
+      </c>
+      <c r="I8" t="str">
+        <v>6470.56</v>
+      </c>
+      <c r="J8" t="str">
+        <v>6613.80</v>
+      </c>
+      <c r="K8" t="str">
+        <v>6906.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>20180927</v>
+      </c>
+      <c r="B9" t="str">
+        <v>26236.01</v>
+      </c>
+      <c r="C9" t="str">
+        <v>27013.56</v>
+      </c>
+      <c r="D9" t="str">
+        <v>9827.77</v>
+      </c>
+      <c r="E9" t="str">
+        <v>10092.41</v>
+      </c>
+      <c r="F9" t="str">
+        <v>3296.50</v>
+      </c>
+      <c r="G9" t="str">
+        <v>3535.70</v>
+      </c>
+      <c r="H9" t="str">
+        <v>6497.94</v>
+      </c>
+      <c r="I9" t="str">
+        <v>6483.88</v>
+      </c>
+      <c r="J9" t="str">
+        <v>6613.80</v>
+      </c>
+      <c r="K9" t="str">
+        <v>6901.57</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>20180928</v>
+      </c>
+      <c r="B10" t="str">
+        <v>26236.01</v>
+      </c>
+      <c r="C10" t="str">
+        <v>26917.51</v>
+      </c>
+      <c r="D10" t="str">
+        <v>9827.77</v>
+      </c>
+      <c r="E10" t="str">
+        <v>10028.61</v>
+      </c>
+      <c r="F10" t="str">
+        <v>3296.50</v>
+      </c>
+      <c r="G10" t="str">
+        <v>3557.36</v>
+      </c>
+      <c r="H10" t="str">
+        <v>6497.94</v>
+      </c>
+      <c r="I10" t="str">
+        <v>6469.82</v>
+      </c>
+      <c r="J10" t="str">
+        <v>6613.80</v>
+      </c>
+      <c r="K10" t="str">
+        <v>6861.72</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>20181001</v>
+      </c>
+      <c r="B11" t="str">
+        <v>26236.01</v>
+      </c>
+      <c r="C11" t="str">
+        <v>26978.38</v>
+      </c>
+      <c r="D11" t="str">
+        <v>9827.77</v>
+      </c>
+      <c r="E11" t="str">
+        <v>10112.93</v>
+      </c>
+      <c r="F11" t="str">
+        <v>3296.50</v>
+      </c>
+      <c r="G11" t="str">
+        <v>3539.78</v>
+      </c>
+      <c r="H11" t="str">
+        <v>6497.94</v>
+      </c>
+      <c r="I11" t="str">
+        <v>6425.42</v>
+      </c>
+      <c r="J11" t="str">
+        <v>6613.80</v>
+      </c>
+      <c r="K11" t="str">
+        <v>6900.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>20181002</v>
+      </c>
+      <c r="B12" t="str">
+        <v>26236.01</v>
+      </c>
+      <c r="C12" t="str">
+        <v>26895.26</v>
+      </c>
+      <c r="D12" t="str">
+        <v>9827.77</v>
+      </c>
+      <c r="E12" t="str">
+        <v>10031.59</v>
+      </c>
+      <c r="F12" t="str">
+        <v>3296.50</v>
+      </c>
+      <c r="G12" t="str">
+        <v>3534.60</v>
+      </c>
+      <c r="H12" t="str">
+        <v>6497.94</v>
+      </c>
+      <c r="I12" t="str">
+        <v>6449.84</v>
+      </c>
+      <c r="J12" t="str">
+        <v>6613.80</v>
+      </c>
+      <c r="K12" t="str">
+        <v>6879.23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>20181003</v>
+      </c>
+      <c r="B13" t="str">
+        <v>26236.01</v>
+      </c>
+      <c r="C13" t="str">
+        <v>26865.28</v>
+      </c>
+      <c r="D13" t="str">
+        <v>9827.77</v>
+      </c>
+      <c r="E13" t="str">
+        <v>10061.10</v>
+      </c>
+      <c r="F13" t="str">
+        <v>3296.50</v>
+      </c>
+      <c r="G13" t="str">
+        <v>3542.46</v>
+      </c>
+      <c r="H13" t="str">
+        <v>6497.94</v>
+      </c>
+      <c r="I13" t="str">
+        <v>6369.92</v>
+      </c>
+      <c r="J13" t="str">
+        <v>6613.80</v>
+      </c>
+      <c r="K13" t="str">
+        <v>6891.80</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>20181004</v>
+      </c>
+      <c r="B14" t="str">
+        <v>26236.01</v>
+      </c>
+      <c r="C14" t="str">
+        <v>26586.81</v>
+      </c>
+      <c r="D14" t="str">
+        <v>9827.77</v>
+      </c>
+      <c r="E14" t="str">
+        <v>9983.76</v>
+      </c>
+      <c r="F14" t="str">
+        <v>3296.50</v>
+      </c>
+      <c r="G14" t="str">
+        <v>3499.82</v>
+      </c>
+      <c r="H14" t="str">
+        <v>6497.94</v>
+      </c>
+      <c r="I14" t="str">
+        <v>6332.18</v>
+      </c>
+      <c r="J14" t="str">
+        <v>6613.80</v>
+      </c>
+      <c r="K14" t="str">
+        <v>6771.05</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>20181005</v>
+      </c>
+      <c r="B15" t="str">
+        <v>26236.01</v>
+      </c>
+      <c r="C15" t="str">
+        <v>26382.56</v>
+      </c>
+      <c r="D15" t="str">
+        <v>9827.77</v>
+      </c>
+      <c r="E15" t="str">
+        <v>9936.81</v>
+      </c>
+      <c r="F15" t="str">
+        <v>3296.50</v>
+      </c>
+      <c r="G15" t="str">
+        <v>3474.54</v>
+      </c>
+      <c r="H15" t="str">
+        <v>6497.94</v>
+      </c>
+      <c r="I15" t="str">
+        <v>6281.86</v>
+      </c>
+      <c r="J15" t="str">
+        <v>6613.80</v>
+      </c>
+      <c r="K15" t="str">
+        <v>6689.35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>20181008</v>
+      </c>
+      <c r="B16" t="str">
+        <v>26236.01</v>
+      </c>
+      <c r="C16" t="str">
+        <v>26221.52</v>
+      </c>
+      <c r="D16" t="str">
+        <v>9827.77</v>
+      </c>
+      <c r="E16" t="str">
+        <v>9851.97</v>
+      </c>
+      <c r="F16" t="str">
+        <v>3296.50</v>
+      </c>
+      <c r="G16" t="str">
+        <v>3456.04</v>
+      </c>
+      <c r="H16" t="str">
+        <v>6497.94</v>
+      </c>
+      <c r="I16" t="str">
+        <v>6260.40</v>
+      </c>
+      <c r="J16" t="str">
+        <v>6613.80</v>
+      </c>
+      <c r="K16" t="str">
+        <v>6653.11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>20181009</v>
+      </c>
+      <c r="B17" t="str">
+        <v>26236.01</v>
+      </c>
+      <c r="C17" t="str">
+        <v>26100.69</v>
+      </c>
+      <c r="D17" t="str">
+        <v>9827.77</v>
+      </c>
+      <c r="E17" t="str">
+        <v>9810.17</v>
+      </c>
+      <c r="F17" t="str">
+        <v>3296.50</v>
+      </c>
+      <c r="G17" t="str">
+        <v>3438.78</v>
+      </c>
+      <c r="H17" t="str">
+        <v>6497.94</v>
+      </c>
+      <c r="I17" t="str">
+        <v>6307.76</v>
+      </c>
+      <c r="J17" t="str">
+        <v>6613.80</v>
+      </c>
+      <c r="K17" t="str">
+        <v>6543.98</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>20181010</v>
+      </c>
+      <c r="B18" t="str">
+        <v>26236.01</v>
+      </c>
+      <c r="C18" t="str">
+        <v>25393.90</v>
+      </c>
+      <c r="D18" t="str">
+        <v>9827.77</v>
+      </c>
+      <c r="E18" t="str">
+        <v>9498.99</v>
+      </c>
+      <c r="F18" t="str">
+        <v>3296.50</v>
+      </c>
+      <c r="G18" t="str">
+        <v>3312.72</v>
+      </c>
+      <c r="H18" t="str">
+        <v>6497.94</v>
+      </c>
+      <c r="I18" t="str">
+        <v>6283.34</v>
+      </c>
+      <c r="J18" t="str">
+        <v>6613.80</v>
+      </c>
+      <c r="K18" t="str">
+        <v>6298.85</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>20181011</v>
+      </c>
+      <c r="B19" t="str">
+        <v>26236.01</v>
+      </c>
+      <c r="C19" t="str">
+        <v>25130.13</v>
+      </c>
+      <c r="D19" t="str">
+        <v>9827.77</v>
+      </c>
+      <c r="E19" t="str">
+        <v>9285.34</v>
+      </c>
+      <c r="F19" t="str">
+        <v>3296.50</v>
+      </c>
+      <c r="G19" t="str">
+        <v>3271.18</v>
+      </c>
+      <c r="H19" t="str">
+        <v>6497.94</v>
+      </c>
+      <c r="I19" t="str">
+        <v>6336.62</v>
+      </c>
+      <c r="J19" t="str">
+        <v>6613.80</v>
+      </c>
+      <c r="K19" t="str">
+        <v>6236.99</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>20181012</v>
+      </c>
+      <c r="B20" t="str">
+        <v>26236.01</v>
+      </c>
+      <c r="C20" t="str">
+        <v>25481.79</v>
+      </c>
+      <c r="D20" t="str">
+        <v>9827.77</v>
+      </c>
+      <c r="E20" t="str">
+        <v>9499.97</v>
+      </c>
+      <c r="F20" t="str">
+        <v>3296.50</v>
+      </c>
+      <c r="G20" t="str">
+        <v>3280.90</v>
+      </c>
+      <c r="H20" t="str">
+        <v>6497.94</v>
+      </c>
+      <c r="I20" t="str">
+        <v>6332.92</v>
+      </c>
+      <c r="J20" t="str">
+        <v>6613.80</v>
+      </c>
+      <c r="K20" t="str">
+        <v>6368.00</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K7 B8:K8" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K20"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Date</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Type</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Ticker</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Quantity</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Price</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Action</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>42995</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
+      <c r="B2" t="str">
+        <v>Stock</v>
+      </c>
+      <c r="C2" t="str">
+        <v>V</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -766,19 +1003,19 @@
       <c r="E2">
         <v>121.71</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" t="str">
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>42995</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
+      <c r="B3" t="str">
+        <v>Stock</v>
+      </c>
+      <c r="C3" t="str">
+        <v>TMUS</v>
       </c>
       <c r="D3">
         <v>16</v>
@@ -786,39 +1023,39 @@
       <c r="E3">
         <v>61.34</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" t="str">
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>42995</v>
       </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
+      <c r="B4" t="str">
+        <v>ETF</v>
+      </c>
+      <c r="C4" t="str">
+        <v>SPHD</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
       <c r="E4">
-        <v>40.950000000000003</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>40.95</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>42995</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
+      <c r="B5" t="str">
+        <v>ETF</v>
+      </c>
+      <c r="C5" t="str">
+        <v>PZD</v>
       </c>
       <c r="D5">
         <v>46</v>
@@ -826,19 +1063,19 @@
       <c r="E5">
         <v>40.53</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" t="str">
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>42995</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
+      <c r="B6" t="str">
+        <v>Stock</v>
+      </c>
+      <c r="C6" t="str">
+        <v>JPM</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -846,39 +1083,39 @@
       <c r="E6">
         <v>112.89</v>
       </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" t="str">
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>42995</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
+      <c r="B7" t="str">
+        <v>Stock</v>
+      </c>
+      <c r="C7" t="str">
+        <v>HEMP</v>
       </c>
       <c r="D7">
         <v>26000</v>
       </c>
       <c r="E7">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.0383</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>42995</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
+      <c r="B8" t="str">
+        <v>Stock</v>
+      </c>
+      <c r="C8" t="str">
+        <v>GE</v>
       </c>
       <c r="D8">
         <v>65</v>
@@ -886,19 +1123,19 @@
       <c r="E8">
         <v>15.01</v>
       </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" t="str">
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>42995</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
+      <c r="B9" t="str">
+        <v>Stock</v>
+      </c>
+      <c r="C9" t="str">
+        <v>FCEL</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -906,19 +1143,19 @@
       <c r="E9">
         <v>2.09</v>
       </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" t="str">
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>42995</v>
       </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
+      <c r="B10" t="str">
+        <v>ETF</v>
+      </c>
+      <c r="C10" t="str">
+        <v>DIA</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -926,39 +1163,39 @@
       <c r="E10">
         <v>235.18</v>
       </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" t="str">
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
         <v>42995</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
+      <c r="B11" t="str">
+        <v>Stock</v>
+      </c>
+      <c r="C11" t="str">
+        <v>CME</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
       <c r="E11">
-        <v>162.91999999999999</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>162.92</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
         <v>42995</v>
       </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
+      <c r="B12" t="str">
+        <v>ETFBond</v>
+      </c>
+      <c r="C12" t="str">
+        <v>BLV</v>
       </c>
       <c r="D12">
         <v>74</v>
@@ -966,19 +1203,19 @@
       <c r="E12">
         <v>87.81</v>
       </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" t="str">
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
         <v>42995</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
+      <c r="B13" t="str">
+        <v>Stock</v>
+      </c>
+      <c r="C13" t="str">
+        <v>AMZN</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -986,39 +1223,39 @@
       <c r="E13">
         <v>1326.83</v>
       </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" t="str">
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
         <v>42995</v>
       </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
+      <c r="B14" t="str">
+        <v>MF</v>
+      </c>
+      <c r="C14" t="str">
+        <v>FOCPX</v>
       </c>
       <c r="D14">
-        <v>314.32799999999997</v>
+        <v>314.328</v>
       </c>
       <c r="E14">
         <v>10.51</v>
       </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" t="str">
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
         <v>42995</v>
       </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
+      <c r="B15" t="str">
+        <v>MF</v>
+      </c>
+      <c r="C15" t="str">
+        <v>FSCHX</v>
       </c>
       <c r="D15">
         <v>181.88</v>
@@ -1026,19 +1263,19 @@
       <c r="E15">
         <v>18.2</v>
       </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" t="str">
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16">
         <v>43361</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
+      <c r="B16" t="str">
+        <v>Stock</v>
+      </c>
+      <c r="C16" t="str">
+        <v>V</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1046,19 +1283,19 @@
       <c r="E16">
         <v>134.91</v>
       </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" t="str">
+        <v>Buy</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17">
         <v>43361</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
+      <c r="B17" t="str">
+        <v>Stock</v>
+      </c>
+      <c r="C17" t="str">
+        <v>V</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -1066,19 +1303,14 @@
       <c r="E17">
         <v>145.46</v>
       </c>
-      <c r="F17" t="s">
-        <v>28</v>
+      <c r="F17" t="str">
+        <v>Buy</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F17" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F17"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>